--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,241 +62,271 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.844+/-0.002</t>
-  </si>
-  <si>
-    <t>0.775+/-0.0</t>
-  </si>
-  <si>
-    <t>0.745</t>
-  </si>
-  <si>
-    <t>0.805+/-0.004</t>
-  </si>
-  <si>
-    <t>0.741+/-0.008</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.907+/-0.002</t>
-  </si>
-  <si>
-    <t>0.844+/-0.014</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>10.498+/-0.338</t>
-  </si>
-  <si>
-    <t>0.727+/-0.003</t>
-  </si>
-  <si>
-    <t>0.718+/-0.0</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.691+/-0.004</t>
-  </si>
-  <si>
-    <t>0.685+/-0.011</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.818+/-0.003</t>
-  </si>
-  <si>
-    <t>0.81+/-0.018</t>
-  </si>
-  <si>
-    <t>0.787</t>
-  </si>
-  <si>
-    <t>1.643+/-0.011</t>
-  </si>
-  <si>
-    <t>0.793+/-0.002</t>
-  </si>
-  <si>
-    <t>0.765+/-0.0</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.844+/-0.003</t>
+  </si>
+  <si>
+    <t>0.769+/-0.0</t>
   </si>
   <si>
     <t>0.742</t>
   </si>
   <si>
-    <t>0.761+/-0.003</t>
-  </si>
-  <si>
-    <t>0.735+/-0.014</t>
+    <t>0.802+/-0.004</t>
+  </si>
+  <si>
+    <t>0.733+/-0.01</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.913+/-0.002</t>
+  </si>
+  <si>
+    <t>0.846+/-0.015</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>12.243+/-0.619</t>
+  </si>
+  <si>
+    <t>0.732+/-0.002</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.697+/-0.002</t>
+  </si>
+  <si>
+    <t>0.688+/-0.012</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.822+/-0.004</t>
+  </si>
+  <si>
+    <t>0.813+/-0.017</t>
+  </si>
+  <si>
+    <t>0.781</t>
+  </si>
+  <si>
+    <t>2.515+/-0.125</t>
+  </si>
+  <si>
+    <t>0.795+/-0.001</t>
+  </si>
+  <si>
+    <t>0.767+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.763+/-0.001</t>
+  </si>
+  <si>
+    <t>0.737+/-0.013</t>
   </si>
   <si>
     <t>0.628</t>
   </si>
   <si>
-    <t>0.853+/-0.003</t>
-  </si>
-  <si>
-    <t>0.827+/-0.016</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>6.605+/-0.419</t>
-  </si>
-  <si>
-    <t>0.709+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.655+/-0.002</t>
-  </si>
-  <si>
-    <t>0.647+/-0.012</t>
-  </si>
-  <si>
-    <t>0.537</t>
-  </si>
-  <si>
-    <t>0.884+/-0.002</t>
-  </si>
-  <si>
-    <t>0.878+/-0.013</t>
-  </si>
-  <si>
-    <t>0.874</t>
-  </si>
-  <si>
-    <t>0.936+/-0.087</t>
-  </si>
-  <si>
-    <t>0.863+/-0.001</t>
-  </si>
-  <si>
-    <t>0.816+/-0.0</t>
-  </si>
-  <si>
-    <t>0.831</t>
-  </si>
-  <si>
-    <t>0.894+/-0.001</t>
-  </si>
-  <si>
-    <t>0.854+/-0.008</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.823+/-0.003</t>
-  </si>
-  <si>
-    <t>0.763+/-0.01</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>12.42+/-0.452</t>
-  </si>
-  <si>
-    <t>0.756+/-0.002</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.778</t>
-  </si>
-  <si>
-    <t>0.786+/-0.003</t>
-  </si>
-  <si>
-    <t>0.778+/-0.009</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.703+/-0.004</t>
-  </si>
-  <si>
-    <t>0.692+/-0.014</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>2.263+/-0.031</t>
-  </si>
-  <si>
-    <t>0.834+/-0.002</t>
-  </si>
-  <si>
-    <t>0.814+/-0.0</t>
-  </si>
-  <si>
-    <t>0.807</t>
-  </si>
-  <si>
-    <t>0.859+/-0.002</t>
-  </si>
-  <si>
-    <t>0.839+/-0.01</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.798+/-0.002</t>
+    <t>0.857+/-0.003</t>
+  </si>
+  <si>
+    <t>0.831+/-0.017</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>10.01+/-0.6</t>
+  </si>
+  <si>
+    <t>0.707+/-0.002</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.653+/-0.001</t>
+  </si>
+  <si>
+    <t>0.645+/-0.012</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.882+/-0.003</t>
+  </si>
+  <si>
+    <t>0.874+/-0.011</t>
+  </si>
+  <si>
+    <t>0.855</t>
+  </si>
+  <si>
+    <t>0.964+/-0.044</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.862+/-0.002</t>
+  </si>
+  <si>
+    <t>0.817+/-0.0</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.889+/-0.002</t>
+  </si>
+  <si>
+    <t>0.848+/-0.007</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.827+/-0.004</t>
+  </si>
+  <si>
+    <t>0.773+/-0.017</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>14.967+/-1.121</t>
+  </si>
+  <si>
+    <t>0.751+/-0.002</t>
+  </si>
+  <si>
+    <t>0.744+/-0.0</t>
+  </si>
+  <si>
+    <t>0.777</t>
+  </si>
+  <si>
+    <t>0.778+/-0.004</t>
+  </si>
+  <si>
+    <t>0.771+/-0.011</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.703+/-0.005</t>
+  </si>
+  <si>
+    <t>0.694+/-0.019</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>2.441+/-0.264</t>
+  </si>
+  <si>
+    <t>0.833+/-0.002</t>
+  </si>
+  <si>
+    <t>0.813+/-0.0</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.856+/-0.003</t>
+  </si>
+  <si>
+    <t>0.836+/-0.009</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>0.8+/-0.004</t>
   </si>
   <si>
     <t>0.778+/-0.015</t>
   </si>
   <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>9.223+/-0.087</t>
-  </si>
-  <si>
-    <t>0.723+/-0.003</t>
-  </si>
-  <si>
-    <t>0.813</t>
-  </si>
-  <si>
-    <t>0.824+/-0.001</t>
-  </si>
-  <si>
-    <t>0.816+/-0.013</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.569+/-0.007</t>
-  </si>
-  <si>
-    <t>0.562+/-0.014</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.946+/-0.016</t>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>10.068+/-0.89</t>
+  </si>
+  <si>
+    <t>0.725+/-0.003</t>
+  </si>
+  <si>
+    <t>0.719+/-0.0</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>0.826+/-0.003</t>
+  </si>
+  <si>
+    <t>0.818+/-0.015</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.57+/-0.007</t>
+  </si>
+  <si>
+    <t>0.562+/-0.025</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>1.128+/-0.167</t>
   </si>
 </sst>
 </file>
@@ -685,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -702,19 +732,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -722,19 +752,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -742,19 +772,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -762,19 +792,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -782,19 +812,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -802,19 +832,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -822,19 +852,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -842,19 +872,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -862,19 +892,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -912,19 +942,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -932,19 +962,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -952,19 +982,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+      <c r="F4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -972,19 +1002,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -992,19 +1022,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1012,19 +1042,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>89</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1032,19 +1062,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1052,19 +1082,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1072,19 +1102,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
         <v>92</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1092,19 +1122,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>93</v>
       </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
